--- a/Staff&Projects(240).xlsx
+++ b/Staff&Projects(240).xlsx
@@ -6,63 +6,1152 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Staff &amp; Projects(240)" r:id="rId3" sheetId="1"/>
+    <sheet name="Classes.Staff &amp; Projects(240)" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="431">
   <si>
     <t>Supervisor</t>
   </si>
   <si>
-    <t>Project</t>
+    <t>Classes.Project</t>
   </si>
   <si>
     <t>Target Audience</t>
   </si>
   <si>
-    <t>Louis Armstrong</t>
-  </si>
-  <si>
-    <t>playing jazz trumpet</t>
+    <t>Grigori Rasputin</t>
+  </si>
+  <si>
+    <t>manipulating political pawns</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>playing the trumpet</t>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
   </si>
   <si>
     <t>CS + DS</t>
   </si>
   <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>John Travolta</t>
-  </si>
-  <si>
-    <t>dancing to disco music</t>
-  </si>
-  <si>
-    <t>playing camp villains</t>
+    <t>winning cycling races</t>
+  </si>
+  <si>
+    <t>Abstract views on pedalling furiously</t>
+  </si>
+  <si>
+    <t>Baldrick</t>
+  </si>
+  <si>
+    <t>developing cunning plans</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>Abstract views on developing cunning plans</t>
+  </si>
+  <si>
+    <t>Samuel Johnson</t>
+  </si>
+  <si>
+    <t>creating dictionaries</t>
+  </si>
+  <si>
+    <t>defining words</t>
+  </si>
+  <si>
+    <t>Abstract views on creating dictionaries</t>
+  </si>
+  <si>
+    <t>Edward Scissorhands</t>
+  </si>
+  <si>
+    <t>making ice sculptures</t>
+  </si>
+  <si>
+    <t>trimming bushes</t>
+  </si>
+  <si>
+    <t>making topiary sculptures</t>
+  </si>
+  <si>
+    <t>Monica Lewinsky</t>
+  </si>
+  <si>
+    <t>conducting illicit affairs</t>
+  </si>
+  <si>
+    <t>causing political scandals</t>
+  </si>
+  <si>
+    <t>doing diet commercials</t>
+  </si>
+  <si>
+    <t>Sydney Bristow</t>
+  </si>
+  <si>
+    <t>kicking ass</t>
+  </si>
+  <si>
+    <t>spying for the CIA</t>
+  </si>
+  <si>
+    <t>Abstract views on kicking ass</t>
+  </si>
+  <si>
+    <t>Tess Durbeyfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders</t>
+  </si>
+  <si>
+    <t>Abstract views on  climbing social ladders</t>
+  </si>
+  <si>
+    <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Abstract views on promoting conservative values</t>
+  </si>
+  <si>
+    <t>Michelangelo</t>
+  </si>
+  <si>
+    <t>painting church ceilings</t>
+  </si>
+  <si>
+    <t>carving magnificent statues</t>
+  </si>
+  <si>
+    <t>Abstract views on painting church ceilings</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Abstract views on promoting Heliocentrism,</t>
+  </si>
+  <si>
+    <t>Huckleberry Finn</t>
+  </si>
+  <si>
+    <t>growing up poor</t>
+  </si>
+  <si>
+    <t>Abstract views on growing up poor</t>
+  </si>
+  <si>
+    <t>Joseph Stalin</t>
+  </si>
+  <si>
+    <t>running a communist country</t>
+  </si>
+  <si>
+    <t>eliminating political rivals,</t>
+  </si>
+  <si>
+    <t>Abstract views on running a communist country</t>
+  </si>
+  <si>
+    <t>J.R.R. Tolkein</t>
+  </si>
+  <si>
+    <t>making fantasy movies</t>
+  </si>
+  <si>
+    <t>Abstract views on making fantasy movies</t>
+  </si>
+  <si>
+    <t>The Joker</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>spreading fear</t>
+  </si>
+  <si>
+    <t>laughing maniacally</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>seducing emperors</t>
+  </si>
+  <si>
+    <t>Abstract views on seducing emperors</t>
+  </si>
+  <si>
+    <t>Adolf Hitler</t>
+  </si>
+  <si>
+    <t>organizing a putsch</t>
+  </si>
+  <si>
+    <t>running a reich</t>
+  </si>
+  <si>
+    <t>launching a war</t>
+  </si>
+  <si>
+    <t>opening a new front</t>
+  </si>
+  <si>
+    <t>creating an axis of evil</t>
+  </si>
+  <si>
+    <t>John Calvin</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>watching TV</t>
+  </si>
+  <si>
+    <t>Abstract views on watching TV</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>pursuing criminals</t>
+  </si>
+  <si>
+    <t>tricking criminals</t>
+  </si>
+  <si>
+    <t>extracting confessions</t>
+  </si>
+  <si>
+    <t>Doctor Stephen Strange</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>teaching magic</t>
+  </si>
+  <si>
+    <t>brewing magican potions</t>
+  </si>
+  <si>
+    <t>casting magic spells</t>
+  </si>
+  <si>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
+    <t>piloting the Millenium Falcon</t>
+  </si>
+  <si>
+    <t>doing the Kessel run</t>
+  </si>
+  <si>
+    <t>smuggling contraband</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>piloting a spaceship</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>playing quidditch</t>
+  </si>
+  <si>
+    <t>Friedrich Nietzsche</t>
+  </si>
+  <si>
+    <t>promoting humanism</t>
+  </si>
+  <si>
+    <t>teaching philosophy</t>
+  </si>
+  <si>
+    <t>spreading philosophy</t>
+  </si>
+  <si>
+    <t>Rosa Parks</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>Abstract views on fighting for civil rights</t>
+  </si>
+  <si>
+    <t>Richard Dawkins</t>
+  </si>
+  <si>
+    <t>explaining evolution</t>
+  </si>
+  <si>
+    <t>promoting Darwinism</t>
+  </si>
+  <si>
+    <t>explaining natural selection</t>
+  </si>
+  <si>
+    <t>promoting atheism</t>
+  </si>
+  <si>
+    <t>ranting about religion</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>King Arthur</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>leading armies into battle</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Snake Plissken</t>
+  </si>
+  <si>
+    <t>going on commando missions</t>
+  </si>
+  <si>
+    <t>organizing prison breaks</t>
+  </si>
+  <si>
+    <t>Abstract views on going on commando missions</t>
+  </si>
+  <si>
+    <t>Patch Adams</t>
+  </si>
+  <si>
+    <t>treating the sick with jokes</t>
+  </si>
+  <si>
+    <t>making sick people laugh</t>
+  </si>
+  <si>
+    <t>Abstract views on treating the sick with jokes</t>
+  </si>
+  <si>
+    <t>Adam Sandler</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
+  </si>
+  <si>
+    <t>Abstract views on making dumb comedies</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
   </si>
   <si>
     <t>starring in Hollywood movies</t>
   </si>
   <si>
-    <t>Weird Al Yankovic</t>
-  </si>
-  <si>
-    <t>singing parody songs</t>
-  </si>
-  <si>
-    <t>parodying songs</t>
-  </si>
-  <si>
-    <t>Abstract views on singing parody songs</t>
+    <t>womanizing</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>Tracy Jordan</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>General Zod</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>striving for world domination</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>spreading revolution</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>promoting socialism</t>
+  </si>
+  <si>
+    <t>Saul Goodman</t>
+  </si>
+  <si>
+    <t>protecting criminals</t>
+  </si>
+  <si>
+    <t>representing criminals</t>
+  </si>
+  <si>
+    <t>bending the law</t>
+  </si>
+  <si>
+    <t>offering legal advice</t>
+  </si>
+  <si>
+    <t>Clarice Starling</t>
+  </si>
+  <si>
+    <t>hunting serial killers</t>
+  </si>
+  <si>
+    <t>Abstract views on hunting serial killers</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>Abstract views on starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Inspector Gadget</t>
+  </si>
+  <si>
+    <t>solving mysteries,using gadgets</t>
+  </si>
+  <si>
+    <t>Abstract views on solving mysteries,using gadgets</t>
+  </si>
+  <si>
+    <t>Alexander the Great</t>
+  </si>
+  <si>
+    <t>building empires</t>
+  </si>
+  <si>
+    <t>Abstract views on building empires</t>
+  </si>
+  <si>
+    <t>Mary Poppins</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>Abstract views on looking after children</t>
+  </si>
+  <si>
+    <t>Jack Donaghy</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>Abstract views on running a business empire</t>
+  </si>
+  <si>
+    <t>Joey Tribbiani</t>
+  </si>
+  <si>
+    <t>seducing women</t>
+  </si>
+  <si>
+    <t>acting off-off-Broadway</t>
+  </si>
+  <si>
+    <t>starring in daytime soap operas</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pushing anti-trust legislation </t>
+  </si>
+  <si>
+    <t>Abstract views on campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>coasting on past glories</t>
+  </si>
+  <si>
+    <t>Abstract views on coasting on past glories</t>
+  </si>
+  <si>
+    <t>Wyatt Earp</t>
+  </si>
+  <si>
+    <t>arresting criminals</t>
+  </si>
+  <si>
+    <t>running a frontier town</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>punishing crime</t>
+  </si>
+  <si>
+    <t>Pablo Picasso</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>Abstract views on painting abstract pictures</t>
+  </si>
+  <si>
+    <t>Tyra Banks</t>
+  </si>
+  <si>
+    <t>modeling clothes</t>
+  </si>
+  <si>
+    <t>selling cosmetics,</t>
+  </si>
+  <si>
+    <t>Abstract views on modeling clothes</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>Abstract views on moaning about women</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Saruman the White</t>
+  </si>
+  <si>
+    <t>plotting with the enemy</t>
+  </si>
+  <si>
+    <t>building an army</t>
+  </si>
+  <si>
+    <t>preparing for war</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>constructing an ironic public image</t>
+  </si>
+  <si>
+    <t>Abstract views on starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Bruce Willis</t>
+  </si>
+  <si>
+    <t>making action movies</t>
+  </si>
+  <si>
+    <t>Abstract views on making action movies</t>
+  </si>
+  <si>
+    <t>Mariah Carey</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>Abstract views on singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>John McClane</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>rescuing hostages</t>
+  </si>
+  <si>
+    <t>Abstract views on foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Tom Cruise</t>
+  </si>
+  <si>
+    <t>promoting Scientology</t>
+  </si>
+  <si>
+    <t>jumping on couches</t>
+  </si>
+  <si>
+    <t>Saddam Hussein</t>
+  </si>
+  <si>
+    <t>suppressing minorities</t>
+  </si>
+  <si>
+    <t>attacking neighbors</t>
+  </si>
+  <si>
+    <t>amassing weapons</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>eating census takers</t>
+  </si>
+  <si>
+    <t>eluding FBI profilers</t>
+  </si>
+  <si>
+    <t>eating people</t>
+  </si>
+  <si>
+    <t>Dr. Evil</t>
+  </si>
+  <si>
+    <t>demanding ransoms from the U.N.</t>
+  </si>
+  <si>
+    <t>Abstract views on demanding ransoms from the U.N.</t>
+  </si>
+  <si>
+    <t>Lee Harvey Oswald</t>
+  </si>
+  <si>
+    <t>assassinating presidents</t>
+  </si>
+  <si>
+    <t>Abstract views on assassinating presidents</t>
+  </si>
+  <si>
+    <t>John Wayne</t>
+  </si>
+  <si>
+    <t>starring in cowboy movies</t>
+  </si>
+  <si>
+    <t>starring in war movies</t>
+  </si>
+  <si>
+    <t>walking like a man</t>
+  </si>
+  <si>
+    <t>Inspector Jacques Clouseau</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>Jesus Christ</t>
+  </si>
+  <si>
+    <t>preaching tolerance</t>
+  </si>
+  <si>
+    <t>spreading Christianity</t>
+  </si>
+  <si>
+    <t>healing the sick</t>
+  </si>
+  <si>
+    <t>curing lepers</t>
+  </si>
+  <si>
+    <t>promoting charity</t>
+  </si>
+  <si>
+    <t>Lt. George Colthurst St Barleigh</t>
+  </si>
+  <si>
+    <t>Abstract views on providing comic relief</t>
+  </si>
+  <si>
+    <t>Ralph Nader</t>
+  </si>
+  <si>
+    <t>campaigning for consumer rights</t>
+  </si>
+  <si>
+    <t>Abstract views on campaigning for consumer rights</t>
+  </si>
+  <si>
+    <t>Gwyneth Paltrow</t>
+  </si>
+  <si>
+    <t>running a new-age website</t>
+  </si>
+  <si>
+    <t>raising new-age children</t>
+  </si>
+  <si>
+    <t>picking weird children names</t>
+  </si>
+  <si>
+    <t>Kent Brockman</t>
+  </si>
+  <si>
+    <t>reading the news</t>
+  </si>
+  <si>
+    <t>hosting anodyne game shows</t>
+  </si>
+  <si>
+    <t>Abstract views on reading the news</t>
+  </si>
+  <si>
+    <t>Niccolò Paganini</t>
+  </si>
+  <si>
+    <t>playing the violin</t>
+  </si>
+  <si>
+    <t>Abstract views on playing the violin</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>Abstract views on ranting about liberals</t>
+  </si>
+  <si>
+    <t>P. T. Barnum</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>selling tickets</t>
+  </si>
+  <si>
+    <t>piquing public interest</t>
+  </si>
+  <si>
+    <t>Ellen DeGeneres</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Abstract views on interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>singing protest songs,</t>
+  </si>
+  <si>
+    <t>Abstract views on singing protest songs,</t>
+  </si>
+  <si>
+    <t>Kim Philby</t>
+  </si>
+  <si>
+    <t>betraying friends</t>
+  </si>
+  <si>
+    <t>stabbing in the back</t>
+  </si>
+  <si>
+    <t>selling out</t>
+  </si>
+  <si>
+    <t>changing sides</t>
+  </si>
+  <si>
+    <t>leaking information</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bridging cultures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract views on bridging cultures </t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>deep-frying chicken</t>
+  </si>
+  <si>
+    <t>selling fried chicken</t>
+  </si>
+  <si>
+    <t>Abstract views on deep-frying chicken</t>
+  </si>
+  <si>
+    <t>George McFly</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
+    <t>spying on girls</t>
+  </si>
+  <si>
+    <t>Abstract views on standing up to bullies</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>Ebenezer Scrooge</t>
+  </si>
+  <si>
+    <t>saving money</t>
+  </si>
+  <si>
+    <t>pinching pennies</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>Pippi Longstocking</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>Abstract views on playing pranks</t>
+  </si>
+  <si>
+    <t>Bilbo Baggins</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>posing riddles</t>
+  </si>
+  <si>
+    <t>Abstract views on solving riddles</t>
+  </si>
+  <si>
+    <t>Whitney Houston</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Abstract views on singing pop songs</t>
+  </si>
+  <si>
+    <t>William the Conqueror</t>
+  </si>
+  <si>
+    <t>Kenny G</t>
+  </si>
+  <si>
+    <t>playing the saxophone,</t>
+  </si>
+  <si>
+    <t>Abstract views on playing the saxophone,</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>Abstract views on exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>Tony Soprano</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Abstract views on running a crime family</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>avoiding taxes</t>
+  </si>
+  <si>
+    <t>preaching to presidents</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>smoking herb</t>
+  </si>
+  <si>
+    <t>singing reggae songs</t>
+  </si>
+  <si>
+    <t>Abstract views on smoking herb</t>
+  </si>
+  <si>
+    <t>Edward Cullen</t>
+  </si>
+  <si>
+    <t>sucking blood</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>Abstract views on sucking blood</t>
+  </si>
+  <si>
+    <t>Wernher von Braun</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>Abstract views on building rocket ships</t>
+  </si>
+  <si>
+    <t>Jim Carrey</t>
+  </si>
+  <si>
+    <t>gurning for the camera</t>
+  </si>
+  <si>
+    <t>pulling faces</t>
+  </si>
+  <si>
+    <t>Abstract views on gurning for the camera</t>
+  </si>
+  <si>
+    <t>Grace Hopper</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Abstract views on pioneering new technologies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>Father Ted</t>
+  </si>
+  <si>
+    <t>spreading Christianity,</t>
+  </si>
+  <si>
+    <t>Abstract views on preaching tolerance</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>collecting fossils</t>
+  </si>
+  <si>
+    <t>promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>Abstract views on collecting fossils</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>eating bugs</t>
+  </si>
+  <si>
+    <t>licking frogs</t>
+  </si>
+  <si>
+    <t>sucking roots</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>mooching from neighbors</t>
+  </si>
+  <si>
+    <t>developing crazy schemes</t>
+  </si>
+  <si>
+    <t>Abstract views on mooching from neighbors</t>
+  </si>
+  <si>
+    <t>Fox Mulder</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>Abstract views on postulating bizarre theories</t>
+  </si>
+  <si>
+    <t>Harriet Tubman</t>
+  </si>
+  <si>
+    <t>fighting for civil rights,</t>
+  </si>
+  <si>
+    <t>Abstract views on fighting for civil rights,</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>studying genetics</t>
+  </si>
+  <si>
+    <t>modeling DNA</t>
+  </si>
+  <si>
+    <t>Abstract views on studying genetics</t>
+  </si>
+  <si>
+    <t>Travis Bickle</t>
+  </si>
+  <si>
+    <t>expressing violent urges</t>
+  </si>
+  <si>
+    <t>talking to mirrors</t>
+  </si>
+  <si>
+    <t>planning assassinations</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>running a newspaper empire</t>
+  </si>
+  <si>
+    <t>publishing newspapers</t>
+  </si>
+  <si>
+    <t>running for governor</t>
+  </si>
+  <si>
+    <t>promoting yellow journalism</t>
+  </si>
+  <si>
+    <t>Willy Wonka</t>
+  </si>
+  <si>
+    <t>making chocolate</t>
+  </si>
+  <si>
+    <t>selling confectionary</t>
+  </si>
+  <si>
+    <t>inventing new confectionary</t>
+  </si>
+  <si>
+    <t>Baron Munchausen</t>
+  </si>
+  <si>
+    <t>telling tall tales</t>
+  </si>
+  <si>
+    <t>inventing lies</t>
+  </si>
+  <si>
+    <t>Abstract views on telling tall tales</t>
+  </si>
+  <si>
+    <t>Russell Crowe</t>
+  </si>
+  <si>
+    <t>throwing temper tantrums</t>
   </si>
   <si>
     <t>Lex Luthor</t>
@@ -71,9 +1160,6 @@
     <t>promoting greed</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
     <t>promoting capitalism</t>
   </si>
   <si>
@@ -83,625 +1169,124 @@
     <t>launching hostile takeovers</t>
   </si>
   <si>
-    <t>striving for world domination</t>
-  </si>
-  <si>
     <t>collecting green Kryponite</t>
   </si>
   <si>
-    <t>Edward Snowden</t>
-  </si>
-  <si>
-    <t>leaking state secrets</t>
-  </si>
-  <si>
-    <t>leaking classified documents</t>
-  </si>
-  <si>
-    <t>Abstract views on leaking state secrets</t>
-  </si>
-  <si>
-    <t>Ophelia</t>
-  </si>
-  <si>
-    <t>talking in riddles</t>
-  </si>
-  <si>
-    <t>singing bawdy songs</t>
-  </si>
-  <si>
-    <t>handing out flowers</t>
-  </si>
-  <si>
-    <t>Scarlett O'Hara</t>
-  </si>
-  <si>
-    <t>attending cotillion balls</t>
-  </si>
-  <si>
-    <t>Abstract views on attending cotillion balls</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>publishing soft pornography</t>
-  </si>
-  <si>
-    <t>dating centrefolds</t>
-  </si>
-  <si>
-    <t>popping Viagra</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>playing rock guitar</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>building giant walls</t>
-  </si>
-  <si>
-    <t>Abstract views on building giant walls</t>
-  </si>
-  <si>
-    <t>Liz Lemon</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>writing TV comedies</t>
-  </si>
-  <si>
-    <t>Abstract views on writing comedy</t>
-  </si>
-  <si>
-    <t>The Scarlet Pimpernel</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>eluding Republicans</t>
-  </si>
-  <si>
-    <t>Abstract views on rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>Iggy Pop</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>Abstract views on doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>Dr. Eldon Tyrell</t>
-  </si>
-  <si>
-    <t>designing replicants</t>
-  </si>
-  <si>
-    <t>building replicants</t>
-  </si>
-  <si>
-    <t>Abstract views on designing replicants</t>
-  </si>
-  <si>
-    <t>Wolverine</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>slashing victims</t>
+    <t>Sinead O'Connor</t>
+  </si>
+  <si>
+    <t>Stewie Griffin</t>
+  </si>
+  <si>
+    <t>plotting against family members</t>
+  </si>
+  <si>
+    <t>inventing time machines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">developing new technologies </t>
+  </si>
+  <si>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Abstract views on fighting for justice</t>
+  </si>
+  <si>
+    <t>H.A.L. 9000</t>
+  </si>
+  <si>
+    <t>murdering astronauts</t>
+  </si>
+  <si>
+    <t>Abstract views on murdering astronauts</t>
+  </si>
+  <si>
+    <t>Dirty Harry Callahan</t>
+  </si>
+  <si>
+    <t>tracking down criminals</t>
   </si>
   <si>
     <t>punishing criminals</t>
   </si>
   <si>
-    <t>Leonard Hofstadter</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>collecting comic books</t>
-  </si>
-  <si>
-    <t>obeying annoying rules</t>
-  </si>
-  <si>
-    <t>promoting science</t>
-  </si>
-  <si>
-    <t>Michael Myers</t>
-  </si>
-  <si>
-    <t>terrorizing sleepers</t>
-  </si>
-  <si>
-    <t>creating nightmares</t>
-  </si>
-  <si>
-    <t>killing teenagers</t>
-  </si>
-  <si>
-    <t>Edward Hopper</t>
-  </si>
-  <si>
-    <t>painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Abstract views on painting melancholy pictures</t>
-  </si>
-  <si>
-    <t>Truman Capote</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>coining sparkling witticisms</t>
-  </si>
-  <si>
-    <t>Matt "Daredevil" Murdock</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>pursuing criminals</t>
-  </si>
-  <si>
-    <t>tricking criminals</t>
-  </si>
-  <si>
-    <t>extracting confessions</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Abstract views on playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Sitting Bull</t>
-  </si>
-  <si>
-    <t>spreading revolution</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>leading revolts</t>
-  </si>
-  <si>
-    <t>Princess Leia Organa</t>
-  </si>
-  <si>
-    <t>leading the rebel alliance</t>
-  </si>
-  <si>
-    <t>smuggling military plans</t>
-  </si>
-  <si>
-    <t>Abstract views on leading the rebel alliance</t>
-  </si>
-  <si>
-    <t>Dr. Evil</t>
-  </si>
-  <si>
-    <t>demanding ransoms from the U.N.</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>Abstract views on demanding ransoms from the U.N.</t>
-  </si>
-  <si>
-    <t>Charlie Chaplin</t>
-  </si>
-  <si>
-    <t>twirling a cane</t>
-  </si>
-  <si>
-    <t>rescuing kids</t>
-  </si>
-  <si>
-    <t>struggling with modern times</t>
-  </si>
-  <si>
-    <t>Madonna</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>promoting Kaballah</t>
-  </si>
-  <si>
-    <t>Frank Sinatra</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>crooning love songs</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>Luis Suarez</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>Abstract views on biting opponents</t>
-  </si>
-  <si>
-    <t>Savonarola</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting conservative values</t>
-  </si>
-  <si>
-    <t>Norma Desmond</t>
-  </si>
-  <si>
-    <t>clinging to past dreams</t>
-  </si>
-  <si>
-    <t>seducing toy boys</t>
-  </si>
-  <si>
-    <t>dreaming of yesteryear</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>jumping over buses on motorbikes</t>
-  </si>
-  <si>
-    <t>Abstract views on performing motorcycle stunts</t>
-  </si>
-  <si>
-    <t>Jerry Lee Lewis</t>
-  </si>
-  <si>
-    <t>playing rock piano</t>
-  </si>
-  <si>
-    <t>marrying underage girls</t>
-  </si>
-  <si>
-    <t>Basil Fawlty</t>
-  </si>
-  <si>
-    <t>condescending to customers</t>
-  </si>
-  <si>
-    <t>beating menial staff</t>
-  </si>
-  <si>
-    <t>terrorizing employees</t>
-  </si>
-  <si>
-    <t>running a hotel</t>
-  </si>
-  <si>
-    <t>Stan Lee</t>
-  </si>
-  <si>
-    <t>writing comic books</t>
-  </si>
-  <si>
-    <t>inventing superheroes</t>
-  </si>
-  <si>
-    <t>Abstract views on writing comic books</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Abstract views on drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>Gore Vidal</t>
-  </si>
-  <si>
-    <t>writing historical fiction</t>
-  </si>
-  <si>
-    <t>Melania Trump</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>Abstract views on posing for photographs</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Fred Astaire</t>
-  </si>
-  <si>
-    <t>starring in musical comedies</t>
-  </si>
-  <si>
-    <t>enjoying ball-room dancing</t>
-  </si>
-  <si>
-    <t>Fox Mulder</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>Abstract views on postulating bizarre theories</t>
-  </si>
-  <si>
-    <t>Ryan Reynolds</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
-  </si>
-  <si>
-    <t>Adrian Monk</t>
-  </si>
-  <si>
-    <t>obsessively washing hands</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>collecting treasures</t>
-  </si>
-  <si>
-    <t>ruining an empire</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Gloria Steinem</t>
-  </si>
-  <si>
-    <t>promoting feminism</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting feminism</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>disappointing the family</t>
-  </si>
-  <si>
-    <t>complaining about big brother</t>
-  </si>
-  <si>
-    <t>Abstract views on disappointing the family</t>
-  </si>
-  <si>
-    <t>Greta Garbo</t>
-  </si>
-  <si>
-    <t>Naomi Campbell</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>Abstract views on peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>Lance Armstrong</t>
-  </si>
-  <si>
-    <t>taking anabolic steroids</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t>riding a bicycle</t>
-  </si>
-  <si>
-    <t>Meryl Streep</t>
-  </si>
-  <si>
-    <t>speaking with funny accents</t>
-  </si>
-  <si>
-    <t>performing serious acting</t>
-  </si>
-  <si>
-    <t>winning Oscars</t>
-  </si>
-  <si>
-    <t>Commander Data</t>
-  </si>
-  <si>
-    <t>piloting a spaceship</t>
-  </si>
-  <si>
-    <t>promoting logical thinking</t>
-  </si>
-  <si>
-    <t>applying science</t>
-  </si>
-  <si>
-    <t>Frank Underwood</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>directing the business of state</t>
-  </si>
-  <si>
-    <t>manipulating political pawns</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Daenerys Targaryen</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>Abstract views on ruling over subjects</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Cher</t>
-  </si>
-  <si>
-    <t>Abstract views on singing pop songs</t>
-  </si>
-  <si>
-    <t>Ella Fitzgerald</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>singing the blues</t>
-  </si>
-  <si>
-    <t>Abstract views on singing torch songs</t>
-  </si>
-  <si>
-    <t>Hellboy</t>
-  </si>
-  <si>
-    <t>smoking cigars</t>
-  </si>
-  <si>
-    <t>hunting demons</t>
-  </si>
-  <si>
-    <t>killing demons</t>
-  </si>
-  <si>
-    <t>battling the forces of darkness</t>
-  </si>
-  <si>
-    <t>William Randolph Hearst</t>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t>Abstract views on fighting with swords</t>
+  </si>
+  <si>
+    <t>Christina Aguilera</t>
+  </si>
+  <si>
+    <t>Captain America</t>
+  </si>
+  <si>
+    <t>promoting American values</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>dining with playboy princes</t>
+  </si>
+  <si>
+    <t>Jean-Luc Picard</t>
+  </si>
+  <si>
+    <t>making strategic decisions</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>Abstract views on making strategic decisions</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
   </si>
   <si>
     <t>running a media empire</t>
   </si>
   <si>
-    <t>publishing newspapers</t>
-  </si>
-  <si>
-    <t>telling politicians what to do</t>
-  </si>
-  <si>
-    <t>Noël Coward</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>Edgar Allan Poe</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>Abstract views on writing mystery stories</t>
-  </si>
-  <si>
-    <t>Jay Gatsby</t>
-  </si>
-  <si>
-    <t>throwing lavish parties</t>
-  </si>
-  <si>
-    <t>Abstract views on throwing lavish parties</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
+    <t>directing animated films</t>
+  </si>
+  <si>
+    <t>making cartoons</t>
+  </si>
+  <si>
+    <t>running theme parks</t>
+  </si>
+  <si>
+    <t>Roy Batty</t>
+  </si>
+  <si>
+    <t>looking for immortality</t>
+  </si>
+  <si>
+    <t>avoiding retirement</t>
+  </si>
+  <si>
+    <t>Abstract views on looking for immortality</t>
+  </si>
+  <si>
+    <t>Luke Skywalker</t>
+  </si>
+  <si>
+    <t>rescuing damsels in distress</t>
+  </si>
+  <si>
+    <t>Abstract views on fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>Sylvia Plath</t>
   </si>
   <si>
     <t>writing poetry</t>
@@ -710,589 +1295,16 @@
     <t>Abstract views on writing poetry</t>
   </si>
   <si>
-    <t>Bob Belcher</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>Abstract views on flipping hamburgers</t>
-  </si>
-  <si>
-    <t>Eliot Ness</t>
-  </si>
-  <si>
-    <t>arresting bootleggers</t>
-  </si>
-  <si>
-    <t>fighting with the mob</t>
-  </si>
-  <si>
-    <t>Abstract views on arresting bootleggers</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
-    <t>Abstract views on running a crime family</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>directing weird movies</t>
-  </si>
-  <si>
-    <t>writing weird movies</t>
-  </si>
-  <si>
-    <t>Abstract views on directing weird movies</t>
-  </si>
-  <si>
-    <t>Marcel Duchamp</t>
-  </si>
-  <si>
-    <t>making subversive art</t>
-  </si>
-  <si>
-    <t>reusing readymades</t>
-  </si>
-  <si>
-    <t>puncturing artistic sensibilities</t>
-  </si>
-  <si>
-    <t>challenging artistic norms</t>
-  </si>
-  <si>
-    <t>Stanley Kowalski</t>
-  </si>
-  <si>
-    <t>moaning about women</t>
-  </si>
-  <si>
-    <t>Abstract views on moaning about women</t>
-  </si>
-  <si>
-    <t>Biff Tannen</t>
-  </si>
-  <si>
-    <t>giving noogies</t>
-  </si>
-  <si>
-    <t>mangling idioms</t>
-  </si>
-  <si>
-    <t>Abstract views on giving noogies</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>teaching philosophy</t>
-  </si>
-  <si>
-    <t>spreading philosophy</t>
-  </si>
-  <si>
-    <t>teaching the next generation</t>
-  </si>
-  <si>
-    <t>Amelia Earhart</t>
-  </si>
-  <si>
-    <t>flying airplanes</t>
-  </si>
-  <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>Abstract views on flying airplanes</t>
-  </si>
-  <si>
-    <t>Novak Djokovic</t>
-  </si>
-  <si>
-    <t>delivering forehand slams</t>
-  </si>
-  <si>
-    <t>winning tennis tournaments</t>
-  </si>
-  <si>
-    <t>Abstract views on delivering forehand slams</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>writing for the New Yorker</t>
-  </si>
-  <si>
-    <t>making witty remarks</t>
-  </si>
-  <si>
-    <t>Virginia Woolf</t>
-  </si>
-  <si>
-    <t>Abstract views on writing modern fiction</t>
-  </si>
-  <si>
-    <t>Michael J. Fox</t>
-  </si>
-  <si>
-    <t>throwing fund-raisers for Parkinson's disease</t>
-  </si>
-  <si>
-    <t>Abstract views on throwing fund-raisers for Parkinson's disease</t>
-  </si>
-  <si>
-    <t>Marc Jacobs</t>
-  </si>
-  <si>
-    <t>designing clothes</t>
-  </si>
-  <si>
-    <t>Abstract views on designing clothes</t>
-  </si>
-  <si>
-    <t>King Lear</t>
-  </si>
-  <si>
-    <t>going senile</t>
-  </si>
-  <si>
-    <t>Abstract views on going senile</t>
-  </si>
-  <si>
-    <t>Jabba the Hutt</t>
-  </si>
-  <si>
-    <t>running a smuggling business</t>
-  </si>
-  <si>
-    <t>Rachel Green</t>
-  </si>
-  <si>
-    <t>getting a nose job</t>
-  </si>
-  <si>
-    <t>Abstract views on getting a nose job</t>
-  </si>
-  <si>
-    <t>RuPaul</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Abstract views on cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Ashton Kutcher</t>
-  </si>
-  <si>
-    <t>starring in sit-coms</t>
-  </si>
-  <si>
-    <t>Abstract views on starring in sit-coms</t>
-  </si>
-  <si>
-    <t>Linus Torvalds</t>
-  </si>
-  <si>
-    <t>developing open-source software</t>
-  </si>
-  <si>
-    <t>promoting open-source software</t>
-  </si>
-  <si>
-    <t>developing operating systems</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>womanizing</t>
-  </si>
-  <si>
-    <t>promoting political causes</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Ed Wood</t>
-  </si>
-  <si>
-    <t>making bad movies</t>
-  </si>
-  <si>
-    <t>writing bad movies</t>
-  </si>
-  <si>
-    <t>directing bad movies</t>
-  </si>
-  <si>
-    <t>directing science fiction movies</t>
-  </si>
-  <si>
-    <t>Tim Berners-Lee</t>
-  </si>
-  <si>
-    <t>promoting the Web</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting the Web</t>
-  </si>
-  <si>
-    <t>Samuel Pepys</t>
-  </si>
-  <si>
-    <t>keeping a diary</t>
-  </si>
-  <si>
-    <t>Abstract views on keeping a diary</t>
-  </si>
-  <si>
-    <t>Svengali</t>
-  </si>
-  <si>
-    <t>manipulating ingenues</t>
-  </si>
-  <si>
-    <t>Abstract views on manipulating ingenues</t>
-  </si>
-  <si>
-    <t>Ellen Ripley</t>
-  </si>
-  <si>
-    <t>hunting aliens</t>
-  </si>
-  <si>
-    <t>Abstract views on hunting aliens</t>
-  </si>
-  <si>
-    <t>Katharine Hepburn</t>
-  </si>
-  <si>
-    <t>Rupert Murdoch</t>
-  </si>
-  <si>
-    <t>Sideshow Bob</t>
-  </si>
-  <si>
-    <t>developing cunning plans</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>Abstract views on developing cunning plans</t>
-  </si>
-  <si>
-    <t>Joan of Arc</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>leading armies into battle</t>
-  </si>
-  <si>
-    <t>Abstract views on fighting with swords</t>
-  </si>
-  <si>
-    <t>Barney Gumble</t>
-  </si>
-  <si>
-    <t>drinking one's life away</t>
-  </si>
-  <si>
-    <t>driving under the influence</t>
-  </si>
-  <si>
-    <t>belching</t>
-  </si>
-  <si>
-    <t>burping</t>
-  </si>
-  <si>
-    <t>Tyrion Lannister</t>
-  </si>
-  <si>
-    <t>developing political strategies</t>
-  </si>
-  <si>
-    <t>Abstract views on developing political strategies</t>
-  </si>
-  <si>
-    <t>Mayor Joe Quimby</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> embezzling tax money</t>
-  </si>
-  <si>
-    <t>taking bribes from organized crime</t>
-  </si>
-  <si>
-    <t>paying kickbacks to the police chief</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>mass-producing cars</t>
-  </si>
-  <si>
-    <t>running assembly lines</t>
-  </si>
-  <si>
-    <t>making cars</t>
-  </si>
-  <si>
-    <t>Brian Griffin</t>
-  </si>
-  <si>
-    <t>promoting liberal values</t>
-  </si>
-  <si>
-    <t>ranting about conservatives</t>
-  </si>
-  <si>
-    <t>Abstract views on promoting liberal values</t>
-  </si>
-  <si>
-    <t>Alec Baldwin</t>
-  </si>
-  <si>
-    <t>attacking paparazzi</t>
-  </si>
-  <si>
-    <t>Abstract views on attacking paparazzi</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>revolutionizing physics</t>
-  </si>
-  <si>
-    <t>Abstract views on revolutionizing physics</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>complaining about life</t>
-  </si>
-  <si>
-    <t>Abstract views on complaining about life</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>writing erotic fiction</t>
-  </si>
-  <si>
-    <t>Abstract views on writing erotic fiction</t>
-  </si>
-  <si>
-    <t>John Grisham</t>
-  </si>
-  <si>
-    <t>writing legal fiction</t>
-  </si>
-  <si>
-    <t>Abstract views on writing legal fiction</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>mooching from neighbors</t>
-  </si>
-  <si>
-    <t>developing crazy schemes</t>
-  </si>
-  <si>
-    <t>Abstract views on mooching from neighbors</t>
-  </si>
-  <si>
-    <t>Napoleon Solo</t>
-  </si>
-  <si>
-    <t>rescuing damsels in distress</t>
-  </si>
-  <si>
-    <t>Abstract views on foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>Oscar Wilde</t>
-  </si>
-  <si>
-    <t>coining epigrams</t>
-  </si>
-  <si>
-    <t>scandalizing polite society</t>
-  </si>
-  <si>
-    <t>Tony Robbins</t>
-  </si>
-  <si>
-    <t>selling self-help books</t>
-  </si>
-  <si>
-    <t>giving self-help lectures,</t>
-  </si>
-  <si>
-    <t>Abstract views on selling self-help books</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>shocking radio listeners</t>
-  </si>
-  <si>
-    <t>hosting radio shows</t>
-  </si>
-  <si>
-    <t>Abstract views on shocking radio listeners</t>
-  </si>
-  <si>
-    <t>Snake Plissken</t>
-  </si>
-  <si>
-    <t>going on commando missions</t>
-  </si>
-  <si>
-    <t>organizing prison breaks</t>
-  </si>
-  <si>
-    <t>Abstract views on going on commando missions</t>
-  </si>
-  <si>
-    <t>Sonny Crockett</t>
-  </si>
-  <si>
-    <t>tracking down criminals</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>arresting drug dealers</t>
-  </si>
-  <si>
-    <t>Jesse Jackson</t>
-  </si>
-  <si>
-    <t>suing large corporations</t>
-  </si>
-  <si>
-    <t>promoting racial harmony</t>
-  </si>
-  <si>
-    <t>Abstract views on suing large corporations</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>terrorizing Earth</t>
-  </si>
-  <si>
-    <t>Abstract views on running an empire</t>
-  </si>
-  <si>
-    <t>Jesse Pinkman</t>
-  </si>
-  <si>
-    <t>cooking chrystal meth</t>
-  </si>
-  <si>
-    <t>running a criminal empire</t>
-  </si>
-  <si>
-    <t>Abstract views on cooking chrystal meth</t>
-  </si>
-  <si>
-    <t>Lars von Trier</t>
-  </si>
-  <si>
-    <t>making new wave movies</t>
-  </si>
-  <si>
-    <t>Abstract views on making new wave movies</t>
-  </si>
-  <si>
-    <t>Wayne Gretzky</t>
-  </si>
-  <si>
-    <t>playing ice hockey</t>
-  </si>
-  <si>
-    <t>Abstract views on playing ice hockey</t>
-  </si>
-  <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>wisecracking</t>
-  </si>
-  <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>pulling pranks</t>
-  </si>
-  <si>
-    <t>Oscar Pistorius</t>
-  </si>
-  <si>
-    <t>running races</t>
-  </si>
-  <si>
-    <t>competing in the Olympics</t>
-  </si>
-  <si>
-    <t>Abstract views on running races</t>
-  </si>
-  <si>
-    <t>Christiane Amanpour</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>Saint Paul</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>extracting Radium from pitchblend</t>
-  </si>
-  <si>
-    <t>Abstract views on extracting Radium from pitchblend</t>
+    <t>Lisa Simpson</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>over-achieving at school</t>
+  </si>
+  <si>
+    <t>Abstract views on playing the saxophone</t>
   </si>
 </sst>
 </file>
@@ -1343,14 +1355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C347"/>
+  <dimension ref="A1:C358"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="57.55078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.09765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.91015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1384,7 +1396,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1392,43 +1404,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1439,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1447,10 +1459,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1458,84 +1470,84 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1543,87 +1555,87 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1631,21 +1643,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1656,10 +1668,10 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1667,21 +1679,21 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1689,21 +1701,21 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -1711,197 +1723,197 @@
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -1912,7 +1924,7 @@
         <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -1923,301 +1935,301 @@
         <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
         <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" t="s">
         <v>88</v>
       </c>
-      <c r="B66" t="s">
-        <v>90</v>
-      </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" t="s">
         <v>91</v>
       </c>
-      <c r="B69" t="s">
-        <v>94</v>
-      </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2225,164 +2237,164 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2390,21 +2402,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B96" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2412,32 +2424,32 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B98" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2445,244 +2457,244 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B100" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B101" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B109" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B110" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B112" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B113" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B117" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B119" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B121" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
@@ -2690,43 +2702,43 @@
         <v>156</v>
       </c>
       <c r="B122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C122" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>159</v>
+      </c>
+      <c r="B124" t="s">
         <v>160</v>
       </c>
-      <c r="B124" t="s">
-        <v>161</v>
-      </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
@@ -2737,7 +2749,7 @@
         <v>163</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127">
@@ -2745,10 +2757,10 @@
         <v>162</v>
       </c>
       <c r="B127" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128">
@@ -2756,32 +2768,32 @@
         <v>162</v>
       </c>
       <c r="B128" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B130" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
@@ -2789,161 +2801,161 @@
         <v>166</v>
       </c>
       <c r="B131" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B132" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B133" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B134" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B135" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B136" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B137" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B138" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B139" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B141" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B142" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B143" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B144" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B145" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2951,46 +2963,46 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B146" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C146" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B147" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B148" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B149" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150">
@@ -2998,10 +3010,10 @@
         <v>190</v>
       </c>
       <c r="B150" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C150" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151">
@@ -3009,282 +3021,282 @@
         <v>190</v>
       </c>
       <c r="B151" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B153" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B154" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B155" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B156" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B157" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B158" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B159" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C159" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B160" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B161" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B162" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B163" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B164" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B165" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B166" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B167" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B168" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B169" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B170" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C170" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B171" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B172" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B173" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B174" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C174" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B175" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B176" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3292,21 +3304,21 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B177" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B178" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3314,98 +3326,98 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B179" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B181" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B182" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B183" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C183" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B184" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C184" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B185" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B186" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B187" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3413,142 +3425,142 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B188" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C188" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B189" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B190" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B191" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B192" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C192" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B193" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C193" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B194" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C194" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B195" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B196" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C196" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B197" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B198" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C198" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B199" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B200" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3556,109 +3568,109 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B201" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B202" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B203" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B204" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C204" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B205" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B206" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B207" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C207" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B208" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C208" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B209" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B210" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3666,87 +3678,87 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B211" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B212" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B213" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B214" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C214" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B215" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C215" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B216" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C216" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B217" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B218" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3754,10 +3766,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B219" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3765,54 +3777,54 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B220" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="C220" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B221" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B222" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B223" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C223" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B224" t="s">
-        <v>279</v>
+        <v>126</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3820,131 +3832,131 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B225" t="s">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B226" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B229" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C229" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B230" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="C230" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B231" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C231" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B232" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C232" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B233" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B234" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C234" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B235" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B236" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -3952,21 +3964,21 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B237" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B238" t="s">
-        <v>297</v>
+        <v>110</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -3974,21 +3986,21 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B239" t="s">
-        <v>298</v>
+        <v>111</v>
       </c>
       <c r="C239" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -3996,10 +4008,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B241" t="s">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4007,120 +4019,120 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B242" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C242" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B243" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C243" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B244" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="C244" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B245" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B246" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C246" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B247" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C247" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B248" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B249" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C249" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B250" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B251" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B252" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4128,76 +4140,76 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B253" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B254" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B255" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C255" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B256" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C256" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B257" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="C258" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B259" t="s">
-        <v>152</v>
+        <v>326</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4205,32 +4217,32 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B260" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="C260" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B261" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B262" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4238,241 +4250,241 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B263" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C263" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B264" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C264" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B265" t="s">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B266" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="C266" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B267" t="s">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="C267" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B268" t="s">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="C268" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B269" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="C269" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B270" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C270" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B271" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C271" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B272" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C272" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B273" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C273" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B274" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C274" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B275" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C275" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B276" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C276" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B277" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C277" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B278" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C278" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B279" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C279" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B280" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C280" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B281" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B282" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C282" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B283" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C283" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B284" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4480,32 +4492,32 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B285" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C285" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B286" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C286" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B287" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4516,98 +4528,98 @@
         <v>357</v>
       </c>
       <c r="B288" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C288" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B289" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C289" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B290" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C290" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B291" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C291" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B292" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C292" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B293" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C293" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B294" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B295" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B296" t="s">
-        <v>369</v>
+        <v>160</v>
       </c>
       <c r="C296" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297">
@@ -4615,10 +4627,10 @@
         <v>370</v>
       </c>
       <c r="B297" t="s">
-        <v>63</v>
+        <v>371</v>
       </c>
       <c r="C297" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298">
@@ -4626,10 +4638,10 @@
         <v>370</v>
       </c>
       <c r="B298" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C298" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299">
@@ -4637,98 +4649,98 @@
         <v>370</v>
       </c>
       <c r="B299" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C299" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B300" t="s">
-        <v>222</v>
+        <v>332</v>
       </c>
       <c r="C300" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B301" t="s">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="C301" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B302" t="s">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="C302" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B303" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C303" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B304" t="s">
-        <v>375</v>
+        <v>126</v>
       </c>
       <c r="C304" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B305" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C305" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B306" t="s">
-        <v>378</v>
+        <v>149</v>
       </c>
       <c r="C306" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B307" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C307" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308">
@@ -4736,10 +4748,10 @@
         <v>380</v>
       </c>
       <c r="B308" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C308" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309">
@@ -4747,10 +4759,10 @@
         <v>380</v>
       </c>
       <c r="B309" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C309" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310">
@@ -4758,216 +4770,216 @@
         <v>380</v>
       </c>
       <c r="B310" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C310" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B311" t="s">
-        <v>385</v>
+        <v>133</v>
       </c>
       <c r="C311" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B312" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C312" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B313" t="s">
-        <v>387</v>
+        <v>298</v>
       </c>
       <c r="C313" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B314" t="s">
-        <v>389</v>
+        <v>299</v>
       </c>
       <c r="C314" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B315" t="s">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="C315" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
+        <v>387</v>
+      </c>
+      <c r="B316" t="s">
         <v>388</v>
       </c>
-      <c r="B316" t="s">
-        <v>84</v>
-      </c>
       <c r="C316" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B317" t="s">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="C317" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B318" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C318" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B319" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C319" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
+        <v>391</v>
+      </c>
+      <c r="B320" t="s">
         <v>392</v>
       </c>
-      <c r="B320" t="s">
-        <v>394</v>
-      </c>
       <c r="C320" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B321" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B322" t="s">
-        <v>169</v>
+        <v>394</v>
       </c>
       <c r="C322" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
+        <v>395</v>
+      </c>
+      <c r="B323" t="s">
         <v>396</v>
       </c>
-      <c r="B323" t="s">
-        <v>397</v>
-      </c>
       <c r="C323" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B324" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C324" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
+        <v>398</v>
+      </c>
+      <c r="B325" t="s">
         <v>399</v>
       </c>
-      <c r="B325" t="s">
-        <v>400</v>
-      </c>
       <c r="C325" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B326" t="s">
-        <v>401</v>
+        <v>176</v>
       </c>
       <c r="C326" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B327" t="s">
-        <v>402</v>
+        <v>75</v>
       </c>
       <c r="C327" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B328" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C328" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B329" t="s">
-        <v>405</v>
+        <v>110</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -4975,10 +4987,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B330" t="s">
-        <v>407</v>
+        <v>111</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -4986,32 +4998,32 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B331" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C331" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B332" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="C332" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B333" t="s">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5019,76 +5031,76 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B334" t="s">
-        <v>411</v>
+        <v>300</v>
       </c>
       <c r="C334" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B335" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="C335" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B336" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C336" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B337" t="s">
-        <v>414</v>
+        <v>205</v>
       </c>
       <c r="C337" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B338" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C338" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B339" t="s">
-        <v>417</v>
+        <v>126</v>
       </c>
       <c r="C339" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B340" t="s">
-        <v>418</v>
+        <v>285</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5096,79 +5108,200 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B341" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C341" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B342" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C342" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B343" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C343" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B344" t="s">
-        <v>120</v>
+        <v>413</v>
       </c>
       <c r="C344" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B345" t="s">
-        <v>122</v>
+        <v>414</v>
       </c>
       <c r="C345" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B346" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C346" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
+        <v>412</v>
+      </c>
+      <c r="B347" t="s">
+        <v>416</v>
+      </c>
+      <c r="C347" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>417</v>
+      </c>
+      <c r="B348" t="s">
+        <v>418</v>
+      </c>
+      <c r="C348" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>417</v>
+      </c>
+      <c r="B349" t="s">
+        <v>419</v>
+      </c>
+      <c r="C349" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>417</v>
+      </c>
+      <c r="B350" t="s">
+        <v>420</v>
+      </c>
+      <c r="C350" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>421</v>
+      </c>
+      <c r="B351" t="s">
+        <v>91</v>
+      </c>
+      <c r="C351" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>421</v>
+      </c>
+      <c r="B352" t="s">
+        <v>422</v>
+      </c>
+      <c r="C352" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>421</v>
+      </c>
+      <c r="B353" t="s">
+        <v>423</v>
+      </c>
+      <c r="C353" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
         <v>424</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B354" t="s">
+        <v>425</v>
+      </c>
+      <c r="C354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>424</v>
+      </c>
+      <c r="B355" t="s">
         <v>426</v>
       </c>
-      <c r="C347" t="s">
-        <v>7</v>
+      <c r="C355" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>427</v>
+      </c>
+      <c r="B356" t="s">
+        <v>428</v>
+      </c>
+      <c r="C356" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>427</v>
+      </c>
+      <c r="B357" t="s">
+        <v>429</v>
+      </c>
+      <c r="C357" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>427</v>
+      </c>
+      <c r="B358" t="s">
+        <v>430</v>
+      </c>
+      <c r="C358" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
